--- a/data/trans_dic/P37_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P37_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que duerme las horas de sueño recomendadas para su edad</t>
+          <t>Población que duerme las horas de sueño recomendadas para su edad (tasa de respuesta: 99,02%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>69,19%</t>
+          <t>65,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>70,75%</t>
+          <t>69,8%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>67,87%</t>
+          <t>65,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>60,87%</t>
+          <t>60,88%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>73,05%</t>
+          <t>61,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>68,29%</t>
+          <t>65,42%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>64,35%</t>
+          <t>68,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>63,77%</t>
+          <t>62,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>71,05%</t>
+          <t>60,46%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>69,53%</t>
+          <t>63,78%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>66,1%</t>
+          <t>71,35%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>62,24%</t>
+          <t>69,66%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>66,85%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>66,07%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>62,67%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>62,25%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>66,37%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>67,57%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>60,64; 76,62</t>
+          <t>56,05; 73,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62,62; 78,78</t>
+          <t>61,12; 77,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57,61; 76,31</t>
+          <t>54,67; 74,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,94; 70,71</t>
+          <t>50,8; 70,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>64,6; 79,57</t>
+          <t>50,26; 70,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,11; 74,91</t>
+          <t>54,59; 73,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>57,11; 71,16</t>
+          <t>60,59; 76,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>53,88; 72,75</t>
+          <t>53,17; 69,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65,24; 76,74</t>
+          <t>53,16; 68,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>63,9; 74,12</t>
+          <t>53,88; 72,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59,99; 72,22</t>
+          <t>62,49; 78,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,98; 68,13</t>
+          <t>60,46; 77,42</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>60,84; 73,15</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>59,87; 71,44</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>56,16; 69,0</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>54,94; 68,74</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>59,19; 71,92</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>61,29; 73,8</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>68,46%</t>
+          <t>67,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>65,66%</t>
+          <t>64,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>65,57%</t>
+          <t>64,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>59,09%</t>
+          <t>59,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>72,05%</t>
+          <t>63,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>52,19%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>72,28%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>66,46%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>66,08%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>65,76%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>59,01%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>70,18%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>65,85%</t>
-        </is>
-      </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>65,66%</t>
+          <t>61,32%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>59,05%</t>
+          <t>63,56%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>69,84%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>65,55%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>65,38%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>59,03%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>62,21%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>57,47%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55,63; 77,2</t>
+          <t>55,22; 76,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>55,98; 72,67</t>
+          <t>54,12; 72,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,77; 73,75</t>
+          <t>53,1; 73,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>46,4; 68,67</t>
+          <t>47,63; 69,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,9; 77,84</t>
+          <t>53,2; 72,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,26; 72,23</t>
+          <t>36,69; 63,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,95; 71,73</t>
+          <t>65,1; 78,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,31; 66,2</t>
+          <t>60,31; 72,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>62,95; 75,75</t>
+          <t>59,47; 72,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>59,89; 70,02</t>
+          <t>50,95; 66,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>58,47; 70,88</t>
+          <t>53,95; 68,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>51,98; 65,61</t>
+          <t>55,35; 70,44</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>62,32; 75,21</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>59,49; 70,52</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>59,17; 70,48</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>51,88; 64,98</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>56,27; 67,88</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>46,32; 64,1</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>66,0%</t>
+          <t>63,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67,53%</t>
+          <t>67,7%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>70,75%</t>
+          <t>70,83%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>61,04%</t>
+          <t>61,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>62,61%</t>
+          <t>58,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>65,53%</t>
+          <t>64,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>62,87%</t>
+          <t>63,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>59,7%</t>
+          <t>65,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>64,29%</t>
+          <t>62,95%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>66,5%</t>
+          <t>59,71%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>66,71%</t>
+          <t>55,71%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>61,12%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>63,9%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>66,49%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>66,8%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>60,41%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>57,12%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>62,65%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,04; 73,55</t>
+          <t>55,66; 70,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,02; 73,2</t>
+          <t>61,52; 73,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>64,78; 76,25</t>
+          <t>64,53; 76,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>53,69; 67,6</t>
+          <t>53,69; 67,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,72; 68,26</t>
+          <t>50,36; 65,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>60,37; 70,32</t>
+          <t>56,29; 71,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>58,24; 67,65</t>
+          <t>57,91; 69,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,43; 65,89</t>
+          <t>60,11; 69,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>58,92; 69,33</t>
+          <t>58,29; 68,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62,54; 69,9</t>
+          <t>52,81; 65,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62,59; 70,6</t>
+          <t>49,29; 62,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>55,65; 64,99</t>
+          <t>54,86; 66,33</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>59,35; 68,59</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>62,24; 70,46</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>63,13; 70,45</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>55,66; 64,74</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>51,86; 62,26</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>57,65; 67,0</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>61,44%</t>
+          <t>60,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>63,5%</t>
+          <t>63,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>60,25%</t>
+          <t>59,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>59,38%</t>
+          <t>59,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>64,36%</t>
+          <t>54,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,84%</t>
+          <t>58,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>52,96%</t>
+          <t>63,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>56,32%</t>
+          <t>58,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>62,96%</t>
+          <t>52,82%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>61,13%</t>
+          <t>56,33%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>56,55%</t>
+          <t>53,97%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>57,95%</t>
+          <t>54,31%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>62,29%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>60,98%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>56,09%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>57,96%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>54,07%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>56,31%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>54,82; 67,75</t>
+          <t>54,25; 66,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,84; 69,1</t>
+          <t>57,44; 68,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,01; 65,95</t>
+          <t>53,38; 64,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,24; 66,87</t>
+          <t>51,85; 67,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>58,28; 69,59</t>
+          <t>46,94; 60,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,41; 64,04</t>
+          <t>50,17; 64,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,6; 57,92</t>
+          <t>57,67; 68,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,93; 62,08</t>
+          <t>54,2; 64,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>58,93; 66,94</t>
+          <t>47,79; 57,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,93; 64,76</t>
+          <t>49,91; 62,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52,86; 60,48</t>
+          <t>48,07; 60,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>53,16; 63,31</t>
+          <t>48,78; 60,18</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>58,12; 66,35</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>57,31; 64,73</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>52,25; 60,09</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>53,5; 63,38</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>49,08; 58,93</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>51,74; 60,58</t>
         </is>
       </c>
     </row>
@@ -1216,17 +1505,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>66,27%</t>
+          <t>66,76%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>70,53%</t>
+          <t>69,79%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>64,08%</t>
+          <t>63,87%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1236,42 +1525,72 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>60,5%</t>
+          <t>51,78%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>57,57%</t>
+          <t>64,29%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>57,87%</t>
+          <t>60,93%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>57,56%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>57,91%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>44,0%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>63,36%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>64,0%</t>
-        </is>
-      </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>60,92%</t>
+          <t>53,05%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>52,35%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>63,83%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>63,63%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>60,83%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>49,66%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>52,43%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>58,15%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>57,71; 72,93</t>
+          <t>59,04; 73,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>64,46; 75,87</t>
+          <t>63,51; 74,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57,6; 69,33</t>
+          <t>57,65; 69,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>47,46; 63,07</t>
+          <t>48,69; 63,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>53,43; 67,15</t>
+          <t>43,93; 58,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>51,97; 64,19</t>
+          <t>56,77; 71,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>51,66; 64,22</t>
+          <t>53,61; 66,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,35; 50,56</t>
+          <t>51,25; 63,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>58,65; 68,09</t>
+          <t>51,61; 64,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>59,34; 68,88</t>
+          <t>38,08; 51,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>56,25; 65,29</t>
+          <t>45,18; 59,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>44,6; 54,8</t>
+          <t>45,21; 60,51</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>58,84; 68,73</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>59,62; 68,14</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>56,51; 65,24</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>44,98; 54,63</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>47,44; 57,12</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>52,84; 63,66</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>59,35%</t>
+          <t>59,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>59,15%</t>
+          <t>59,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>58,43%</t>
+          <t>58,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>62,47%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>47,79%</t>
+          <t>57,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>54,85%</t>
+          <t>61,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>59,08%</t>
+          <t>49,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>53,06%</t>
+          <t>55,12%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>52,88%</t>
+          <t>57,94%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>56,75%</t>
+          <t>53,04%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>58,8%</t>
+          <t>48,77%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>57,08%</t>
+          <t>53,98%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>53,48%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>56,88%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>58,14%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>57,07%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>52,67%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>57,23%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>49,96; 67,93</t>
+          <t>50,22; 66,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>50,48; 67,5</t>
+          <t>51,33; 66,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>50,39; 65,38</t>
+          <t>50,27; 65,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>54,41; 69,85</t>
+          <t>54,29; 69,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>39,87; 55,16</t>
+          <t>49,22; 65,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,22; 60,27</t>
+          <t>51,93; 69,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>52,59; 67,86</t>
+          <t>41,8; 56,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>43,55; 61,62</t>
+          <t>48,64; 61,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>46,31; 58,02</t>
+          <t>51,07; 64,9</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>51,34; 61,65</t>
+          <t>42,95; 63,2</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>53,52; 64,74</t>
+          <t>40,48; 57,46</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>50,28; 63,52</t>
+          <t>43,54; 62,93</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>48,13; 58,28</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>52,11; 61,81</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>53,17; 63,08</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>50,72; 63,45</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>47,05; 59,28</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>50,85; 63,06</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>65,02%</t>
+          <t>63,74%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>66,12%</t>
+          <t>65,61%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>64,68%</t>
+          <t>63,94%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>59,84%</t>
+          <t>59,83%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>62,53%</t>
+          <t>57,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>61,68%</t>
+          <t>60,75%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>60,26%</t>
+          <t>62,3%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>60,84%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>59,52%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
           <t>55,58%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>63,75%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>63,85%</t>
-        </is>
-      </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>62,41%</t>
+          <t>56,5%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>58,67%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>63,0%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>63,18%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>61,67%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>57,71%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>57,09%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>59,69%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>61,83; 68,26</t>
+          <t>60,34; 66,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>62,94; 68,89</t>
+          <t>62,62; 68,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>61,39; 67,7</t>
+          <t>60,6; 66,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>55,92; 62,94</t>
+          <t>55,97; 63,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>59,19; 65,29</t>
+          <t>54,07; 61,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>59,3; 64,06</t>
+          <t>56,65; 64,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>57,55; 62,82</t>
+          <t>59,28; 64,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>52,31; 58,66</t>
+          <t>58,66; 63,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>61,47; 65,91</t>
+          <t>56,96; 61,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>62,0; 65,74</t>
+          <t>52,29; 58,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>60,44; 64,28</t>
+          <t>53,4; 59,58</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>55,22; 60,12</t>
+          <t>55,37; 61,82</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>60,82; 65,24</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>61,36; 65,26</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>59,88; 63,61</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>55,38; 60,17</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>54,76; 59,37</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>57,16; 61,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que duerme las horas de sueño recomendadas para su edad (tasa de respuesta: 99,02%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>276274</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>333328</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>281968</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>25394</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>25311</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>302304</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>268767</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>278641</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>282554</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>23852</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>27506</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>330160</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>545041</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>611969</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>564522</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>49246</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>52817</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>632464</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>238146; 312506</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>291853; 372148</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>236934; 321323</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21189; 29383</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>20623; 28968</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>252251; 340926</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>236612; 298070</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>238586; 311835</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>248432; 320593</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20149; 26987</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24093; 30180</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>286573; 366916</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>496075; 596401</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>554563; 661669</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>505874; 621507</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>43463; 54380</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>47102; 57236</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>573675; 690840</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>383726</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>366122</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>383510</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>28884</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>28767</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>300602</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>371250</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>334732</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>338866</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>26909</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>28055</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>317737</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>754977</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>700854</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>722375</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>55793</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>56821</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>618340</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>313249; 435498</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>306075; 409144</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>314335; 433310</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>23294; 33778</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>24255; 33264</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>211343; 364133</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>334370; 404788</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>303762; 364757</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>305009; 370497</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>23237; 30266</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>24684; 31219</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>276694; 352115</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>673625; 813009</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>636034; 753968</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>653756; 778653</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>49035; 61419</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>51399; 62004</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>498305; 689641</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>316.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>416.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>420.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>433592</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>460830</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>480244</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36578</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>34602</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>432490</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>455113</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>468378</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>447258</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>31929</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>30231</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>429779</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>888704</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>929208</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>927503</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>68506</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>64832</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>862270</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>377511; 478075</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>418816; 499198</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>437495; 518648</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>32182; 40246</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>29827; 38829</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>378920; 480858</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>412553; 491596</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>430819; 500858</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>414140; 483528</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>28239; 35044</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>26748; 34038</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>385746; 466368</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>825370; 953854</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>869755; 984634</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>876540; 978203</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>63123; 73418</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>58853; 70663</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>793443; 922099</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>397.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>377.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>393171</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>405182</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>374917</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>34604</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>30493</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>380522</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>435644</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>393662</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>345719</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>28799</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>28241</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>350014</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>828815</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>798844</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>720636</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>63403</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>58733</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>730536</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>351129; 430783</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>368909; 439406</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>336460; 408177</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>30213; 39318</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>26424; 34294</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>327514; 420874</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>394005; 468517</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>361969; 428498</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>312765; 376865</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>25517; 32143</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>25151; 31515</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>314329; 387836</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>773318; 882745</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>750802; 847954</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>671343; 772140</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>58529; 69335</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>53311; 64011</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>671242; 785841</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>330682</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>340291</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>312479</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>24711</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>22692</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>311866</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>305536</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>284910</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>295085</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>21333</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>24328</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>269150</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>636218</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>625201</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>607564</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>46044</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>47021</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>581016</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>292437; 363856</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>309695; 364959</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>282052; 342268</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>21537; 28118</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>19250; 25642</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>275373; 344418</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>268814; 334720</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>253683; 315201</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>262983; 326388</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>18460; 24845</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>20719; 27497</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>232429; 311058</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>586510; 685034</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>585846; 669555</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>564415; 651588</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>41699; 50648</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>42540; 51225</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>527968; 636054</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>317739</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>304649</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>297013</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>29265</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>26225</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>344594</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>336804</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>361731</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>384891</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>33346</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>29073</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>380759</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>654544</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>666381</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>681904</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>62611</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>55297</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>725353</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>269593; 357191</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>264582; 344735</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>255720; 334148</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>25429; 32699</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>22338; 29891</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>291830; 390243</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>287184; 386004</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>319193; 403073</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>339250; 431110</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>26999; 39732</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>24133; 34254</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>307167; 443904</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>589094; 713336</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>610538; 724236</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>623641; 739912</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>55638; 69604</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>49402; 62243</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>644516; 799239</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>729.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>863.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>825.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>543.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>510.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>633.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>824.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>976.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>963.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>610.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>738.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1553.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>1839.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>1788.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1137.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>1120.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1371.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2135186</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2210404</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2130131</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>179436</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>168089</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2072379</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2173113</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2122054</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2094372</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>166167</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>167434</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2077599</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>4308299</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>4332458</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>4224503</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>345603</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>335523</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>4149978</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2021166; 2234924</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2109817; 2300641</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2019145; 2229562</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>167839; 189452</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>157529; 177858</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1932600; 2199377</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2067824; 2264508</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2046169; 2204410</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2004551; 2176721</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>156320; 175596</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>158254; 176571</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1960622; 2189189</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>4158888; 4461286</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>4207220; 4475194</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>4101961; 4357617</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>331622; 360331</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>321805; 348906</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>3974130; 4307478</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
